--- a/database/Additional Info/IndexToTable.xlsx
+++ b/database/Additional Info/IndexToTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apers\OneDrive\Desktop\484 Files\lab1_P3\Additional Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0421FD-8894-4E9E-82AD-9B06AB3BAB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7C7415-E8F0-4205-9086-41C1ADB18084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4D608147-E7B5-4818-8A35-A1AAA5944482}"/>
   </bookViews>
@@ -527,7 +527,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/database/Additional Info/IndexToTable.xlsx
+++ b/database/Additional Info/IndexToTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apers\OneDrive\Desktop\484 Files\lab1_P3\Additional Info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apers\OneDrive\Desktop\484 Files\database\Additional Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7C7415-E8F0-4205-9086-41C1ADB18084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE813BF1-AB1D-444C-BB5A-9637124DD7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4D608147-E7B5-4818-8A35-A1AAA5944482}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Index:</t>
   </si>
@@ -153,6 +153,18 @@
   </si>
   <si>
     <t>Message_ID</t>
+  </si>
+  <si>
+    <t>ChildTask</t>
+  </si>
+  <si>
+    <t>Child_Task_ID</t>
+  </si>
+  <si>
+    <t>AssignedTask</t>
+  </si>
+  <si>
+    <t>Assigned_Task_ID</t>
   </si>
 </sst>
 </file>
@@ -524,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A113E40-B77B-439B-9273-579429E71C6A}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -745,6 +757,28 @@
         <v>38</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/Additional Info/IndexToTable.xlsx
+++ b/database/Additional Info/IndexToTable.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apers\OneDrive\Desktop\484 Files\database\Additional Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE813BF1-AB1D-444C-BB5A-9637124DD7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00E0DBD-0C8A-4B40-80A3-B996B4FC43F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4D608147-E7B5-4818-8A35-A1AAA5944482}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tables" sheetId="2" r:id="rId1"/>
+    <sheet name="Roles" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,95 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
-  <si>
-    <t>Index:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Task </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BusPartner </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BusPartnerStatus  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BusProject  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BusRep  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Employee  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EmployeeProject  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Faculty  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FacultyProject  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GrantCategory  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GrantProject  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Grants  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GrantStatus  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MeetingMinutes  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OrgType  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PersonalInfo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ProjectNotes  </t>
-  </si>
-  <si>
-    <t>Bus_Partner_ID</t>
-  </si>
-  <si>
-    <t>Bus_Project_ID</t>
-  </si>
-  <si>
-    <t>Bus_Rep_ID</t>
-  </si>
-  <si>
-    <t>Employee_ID</t>
-  </si>
-  <si>
-    <t>Employee_Project_ID</t>
-  </si>
-  <si>
-    <t>Faculty_ID</t>
-  </si>
-  <si>
-    <t>Faculty_Project_ID</t>
-  </si>
-  <si>
-    <t>Grant_Project_ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Meeting_Minutes_ID</t>
   </si>
   <si>
-    <t>Org_Type_ID</t>
-  </si>
-  <si>
-    <t>Project_Notes_ID</t>
-  </si>
-  <si>
     <t>Task_ID</t>
   </si>
   <si>
@@ -143,15 +60,9 @@
     <t>Category_ID</t>
   </si>
   <si>
-    <t>Table</t>
-  </si>
-  <si>
     <t>Primary Key</t>
   </si>
   <si>
-    <t>Message</t>
-  </si>
-  <si>
     <t>Message_ID</t>
   </si>
   <si>
@@ -165,13 +76,133 @@
   </si>
   <si>
     <t>Assigned_Task_ID</t>
+  </si>
+  <si>
+    <t>User_ID</t>
+  </si>
+  <si>
+    <t>UserType</t>
+  </si>
+  <si>
+    <t>User_Type_ID</t>
+  </si>
+  <si>
+    <t>UserStatus</t>
+  </si>
+  <si>
+    <t>User_Status_ID</t>
+  </si>
+  <si>
+    <t>Notes_ID</t>
+  </si>
+  <si>
+    <t>Project_Status_ID</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Messages</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Table Name</t>
+  </si>
+  <si>
+    <t>AssignedProject</t>
+  </si>
+  <si>
+    <t>Assigned_Project_ID</t>
+  </si>
+  <si>
+    <t>GrantCategory</t>
+  </si>
+  <si>
+    <t>GrantStatus</t>
+  </si>
+  <si>
+    <t>Grants</t>
+  </si>
+  <si>
+    <t>MeetingMinutes</t>
+  </si>
+  <si>
+    <t>PersonalInfo</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>ProjectNotes</t>
+  </si>
+  <si>
+    <t>ProjectStatus</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Role_ID</t>
+  </si>
+  <si>
+    <t>UserRole</t>
+  </si>
+  <si>
+    <t>User_Role_ID</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Partner_ID</t>
+  </si>
+  <si>
+    <t>Project_ID</t>
+  </si>
+  <si>
+    <t>PartnerStatus</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Project-Manager</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>Co-PI</t>
+  </si>
+  <si>
+    <t>Senior-Researcher</t>
+  </si>
+  <si>
+    <t>Researcher</t>
+  </si>
+  <si>
+    <t>Faculty</t>
+  </si>
+  <si>
+    <t>Client-Liason</t>
+  </si>
+  <si>
+    <t>Roles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,16 +210,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -196,12 +241,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,251 +609,378 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A113E40-B77B-439B-9273-579429E71C6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A99FA5-9D27-419E-A98D-F7B920875B76}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" customWidth="1"/>
+    <col min="1" max="1" width="7.21875" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C12" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B21" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C21" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F210D1C0-E747-43B0-B7DE-8E9A7DDCD8A2}">
+  <dimension ref="B1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="1">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E8" si="0">E3+B2</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9">
+        <f>E10+B9</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>